--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value599.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value599.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.990143941044495</v>
+        <v>1.070885181427002</v>
       </c>
       <c r="B1">
-        <v>1.082381820943581</v>
+        <v>1.635731101036072</v>
       </c>
       <c r="C1">
-        <v>1.030900340321275</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.099720877394511</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.317344636435482</v>
+        <v>1.158355474472046</v>
       </c>
     </row>
   </sheetData>
